--- a/biology/Médecine/Daniel_Douady/Daniel_Douady.xlsx
+++ b/biology/Médecine/Daniel_Douady/Daniel_Douady.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Daniel Douady, né le 26 septembre 1904 à Brest (Finistère) et mort le 14 octobre 1982 à Tulle (Corrèze), est un médecin français.
 Il est directeur général de la Fondation santé des étudiants de France (FSEF). Il est également membre libre de l'Académie nationale de médecine française entre 1962 et 1982.
@@ -514,19 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunesse et éducation
-Daniel Léon Joseph Douady naît le 26 septembre 1904 à Brest, dans le département français du Finistère[1],[2]. Son père, Jules Douady, est professeur de lettres puis d'anglais (il deviendra maître de conférences en langue et littérature anglaise, professeur-adjoint de langue et civilisation anglaises et américaines, professeur de littératures anglaise et américaine, puis, en 1922, inspecteur général de l'instruction publique et professeur honoraire à la Faculté des lettres de Lyon) ; sa mère, Augustine Tron, ancienne élève de l’École normale supérieure de Fontenay-aux-Roses, est professeure agrégée d'anglais[2]. Il a une sœur et un frère[2].
-Vie professionnelle
-Lors de son internat en médecine dans les Hôpitaux de Paris, il est notamment au sein du service de M. Rist, qui le charge ensuite de l'ouverture du premier sanatorium français destiné aux étudiants, le Sanatorium des étudiants de France localisé à Saint-Hilaire-du-Touvet, dans le département de l'Isère[1]. Il devient alors également directeur général de la Fondation santé des étudiants de France, qu'il a contribué à développer[1], en 1933[3]. En tant que médecin, il est spécialisé dans la phtisiologie[1].
-Entre 1945 et 1948 puis entre 1954 et 1961, il devient directeur de l'Hygiène scolaire et universitaire au sein du ministère de l’Éducation nationale[1],[2]. À partir de 1962, il devient directeur honoraire et conseiller technique pour la santé scolaire et universitaire au ministère de l’Éducation nationale[3].
-À partir de 1970, il participe, aux côtés du médecin Robert Debré, à l'étude internationale « BIOS », de l'Organisation mondiale de la santé (OMS) et l'Unesco, concernant la vie des étudiants dans le monde[1].
-Du 3 avril 1962 à 1982, il est membre de l'Académie nationale de médecine française[1],[2].
-Pendant l'Occupation
-Alors qu’il dirige le Sanatorium des étudiants de France, Daniel Douady rédige, pendant l’Occupation, de faux certificats médicaux pour que des Juifs puissent s’y cacher en tant que malades. Il embauche aussi trois médecins juifs, qui de par les lois de Vichy n’avaient pourtant pas le droit d’exercer[4]. Enfin, d’après la résistante Madeleine Riffaud, le sanatorium hébergeait également une imprimerie clandestine, dont lui seul avait la clé[5].
-Vie privée
-Il épouse Guilhen Perrier, fille du zoologiste Rémy Perrier[6] ; le couple a cinq enfants (Laurence Dolivet, le mathématicien Adrien Douady, Clément-Noël Douady, Jérôme Douady et Véronique Gautheron[2]), et de nombreux petits-enfants (dont les chercheurs Raphaël Douady et Stéphane Douady) et arrière-petits-enfants (dont la grimpeuse Luce Douady)[7].
-Mort
-Daniel Douady meurt le 14 octobre 1982 à Tulle, en Corrèze[1],[2].
+          <t>Jeunesse et éducation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daniel Léon Joseph Douady naît le 26 septembre 1904 à Brest, dans le département français du Finistère,. Son père, Jules Douady, est professeur de lettres puis d'anglais (il deviendra maître de conférences en langue et littérature anglaise, professeur-adjoint de langue et civilisation anglaises et américaines, professeur de littératures anglaise et américaine, puis, en 1922, inspecteur général de l'instruction publique et professeur honoraire à la Faculté des lettres de Lyon) ; sa mère, Augustine Tron, ancienne élève de l’École normale supérieure de Fontenay-aux-Roses, est professeure agrégée d'anglais. Il a une sœur et un frère.
 </t>
         </is>
       </c>
@@ -552,15 +558,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Ouvrages</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Avec André Meyer, La section des brides dans le pneumothorax artificiel (opération de Jacobaeus), 1932[1].
-« La lutte antituberculeuse dans l'enseignement supérieur », in Réalisations et perspectives, 1932[1].
-Les sanatoriums universitaires français, 1955[1].
-Avec les docteurs Jeanguyot et Lacalmontie, Réadaptation des scolaires et des étudiants atteints de maladies ou d'infirmités de longue durée, 1969[3].</t>
+          <t>Vie professionnelle</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lors de son internat en médecine dans les Hôpitaux de Paris, il est notamment au sein du service de M. Rist, qui le charge ensuite de l'ouverture du premier sanatorium français destiné aux étudiants, le Sanatorium des étudiants de France localisé à Saint-Hilaire-du-Touvet, dans le département de l'Isère. Il devient alors également directeur général de la Fondation santé des étudiants de France, qu'il a contribué à développer, en 1933. En tant que médecin, il est spécialisé dans la phtisiologie.
+Entre 1945 et 1948 puis entre 1954 et 1961, il devient directeur de l'Hygiène scolaire et universitaire au sein du ministère de l’Éducation nationale,. À partir de 1962, il devient directeur honoraire et conseiller technique pour la santé scolaire et universitaire au ministère de l’Éducation nationale.
+À partir de 1970, il participe, aux côtés du médecin Robert Debré, à l'étude internationale « BIOS », de l'Organisation mondiale de la santé (OMS) et l'Unesco, concernant la vie des étudiants dans le monde.
+Du 3 avril 1962 à 1982, il est membre de l'Académie nationale de médecine française,.
+</t>
         </is>
       </c>
     </row>
@@ -585,18 +598,203 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Pendant l'Occupation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alors qu’il dirige le Sanatorium des étudiants de France, Daniel Douady rédige, pendant l’Occupation, de faux certificats médicaux pour que des Juifs puissent s’y cacher en tant que malades. Il embauche aussi trois médecins juifs, qui de par les lois de Vichy n’avaient pourtant pas le droit d’exercer. Enfin, d’après la résistante Madeleine Riffaud, le sanatorium hébergeait également une imprimerie clandestine, dont lui seul avait la clé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Daniel_Douady</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Daniel_Douady</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il épouse Guilhen Perrier, fille du zoologiste Rémy Perrier ; le couple a cinq enfants (Laurence Dolivet, le mathématicien Adrien Douady, Clément-Noël Douady, Jérôme Douady et Véronique Gautheron), et de nombreux petits-enfants (dont les chercheurs Raphaël Douady et Stéphane Douady) et arrière-petits-enfants (dont la grimpeuse Luce Douady).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Daniel_Douady</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Daniel_Douady</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Mort</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daniel Douady meurt le 14 octobre 1982 à Tulle, en Corrèze,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Daniel_Douady</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Daniel_Douady</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Avec André Meyer, La section des brides dans le pneumothorax artificiel (opération de Jacobaeus), 1932.
+« La lutte antituberculeuse dans l'enseignement supérieur », in Réalisations et perspectives, 1932.
+Les sanatoriums universitaires français, 1955.
+Avec les docteurs Jeanguyot et Lacalmontie, Réadaptation des scolaires et des étudiants atteints de maladies ou d'infirmités de longue durée, 1969.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Daniel_Douady</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Daniel_Douady</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Décorations
-1956 : Commandeur de l'Ordre de la Santé publique[1] ;
-1957 : Officier de l'Ordre national de la Légion d'honneur[1] ;
-1959 : Commandeur de l'Ordre des Palmes académiques[1] ;
-Officier de l'Ordre Polonia Restituta[1].
-Hommages
-Le nouveau nom du sanatorium des étudiants de France à partir des années 1980, Centre médico-universitaire Daniel-Douady, lui rend hommage.
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Décorations</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1956 : Commandeur de l'Ordre de la Santé publique ;
+1957 : Officier de l'Ordre national de la Légion d'honneur ;
+1959 : Commandeur de l'Ordre des Palmes académiques ;
+Officier de l'Ordre Polonia Restituta.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Daniel_Douady</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Daniel_Douady</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Hommages</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nouveau nom du sanatorium des étudiants de France à partir des années 1980, Centre médico-universitaire Daniel-Douady, lui rend hommage.
 </t>
         </is>
       </c>
